--- a/00.프로젝트 관리/프로젝트 계획서_250204.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250204.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="140">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2293,6 +2293,11 @@
     <t>질문
 1. 스크롤, 클릭 이벤트 충돌되어서 클릭 이벤트시 스크롤 위치값과 클릭 이동값이 계속해서 호출되는 현상.
 2. 갤러리 섹션 스크롤시 렉이 걸리는 이유. 해결방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 
+1. scrollIntoView는 기본 내장 속성이라, 잘 쓰지 않음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3227,6 +3232,60 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3257,58 +3316,22 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3318,24 +3341,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3663,11 +3668,11 @@
   <sheetData>
     <row r="1" spans="2:26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="20"/>
@@ -3693,56 +3698,56 @@
       </c>
     </row>
     <row r="4" spans="2:26" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="75">
+      <c r="I4" s="62">
         <v>45670</v>
       </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
     </row>
     <row r="5" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="64"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="68"/>
       <c r="I5" s="19">
         <f>I4</f>
         <v>45670</v>
@@ -3817,13 +3822,13 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="65"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="69"/>
       <c r="I6" s="30">
         <f>I5</f>
         <v>45670</v>
@@ -3908,7 +3913,7 @@
       <c r="E7" s="11">
         <v>45694</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="73" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="22">
@@ -3952,7 +3957,7 @@
       <c r="E8" s="11">
         <v>45694</v>
       </c>
-      <c r="F8" s="84"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="22">
         <f t="shared" ref="G8:G12" si="3">IF(E8="","",E8+1-D8)</f>
         <v>25</v>
@@ -3992,7 +3997,7 @@
       <c r="E9" s="11">
         <v>45694</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -4032,7 +4037,7 @@
       <c r="E10" s="11">
         <v>45694</v>
       </c>
-      <c r="F10" s="84"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -4072,7 +4077,7 @@
       <c r="E11" s="11">
         <v>45694</v>
       </c>
-      <c r="F11" s="84"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -4112,7 +4117,7 @@
       <c r="E12" s="11">
         <v>45694</v>
       </c>
-      <c r="F12" s="84"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -4152,7 +4157,7 @@
       <c r="E13" s="11">
         <v>45694</v>
       </c>
-      <c r="F13" s="84"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="22">
         <f t="shared" ref="G13:G34" si="4">IF(E13="","",E13+1-D13)</f>
         <v>25</v>
@@ -4192,7 +4197,7 @@
       <c r="E14" s="11">
         <v>45694</v>
       </c>
-      <c r="F14" s="84"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="22">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -4230,7 +4235,7 @@
       <c r="E15" s="11">
         <v>45694</v>
       </c>
-      <c r="F15" s="84"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="22">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -4268,7 +4273,7 @@
       <c r="E16" s="11">
         <v>45694</v>
       </c>
-      <c r="F16" s="85"/>
+      <c r="F16" s="75"/>
       <c r="G16" s="22">
         <f>IF(E16="","",E16+1-D16)</f>
         <v>14</v>
@@ -4306,7 +4311,7 @@
       <c r="E17" s="11">
         <v>45688</v>
       </c>
-      <c r="F17" s="86" t="s">
+      <c r="F17" s="76" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="22">
@@ -4348,7 +4353,7 @@
       <c r="E18" s="11">
         <v>45694</v>
       </c>
-      <c r="F18" s="84"/>
+      <c r="F18" s="74"/>
       <c r="G18" s="22">
         <f t="shared" ref="G18" si="5">IF(E18="","",E18+1-D18)</f>
         <v>14</v>
@@ -4388,7 +4393,7 @@
       <c r="E19" s="11">
         <v>45681</v>
       </c>
-      <c r="F19" s="84"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="22">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -4419,7 +4424,7 @@
       <c r="B20" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="59" t="s">
         <v>120</v>
       </c>
       <c r="D20" s="11">
@@ -4428,7 +4433,7 @@
       <c r="E20" s="11">
         <v>45684</v>
       </c>
-      <c r="F20" s="84"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="22">
         <f t="shared" ref="G20:G26" si="6">IF(E20="","",E20+1-D20)</f>
         <v>15</v>
@@ -4459,14 +4464,14 @@
       <c r="B21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="73"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="11">
         <v>45670</v>
       </c>
       <c r="E21" s="11">
         <v>45684</v>
       </c>
-      <c r="F21" s="84"/>
+      <c r="F21" s="74"/>
       <c r="G21" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4497,14 +4502,14 @@
       <c r="B22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="73"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="11">
         <v>45670</v>
       </c>
       <c r="E22" s="11">
         <v>45684</v>
       </c>
-      <c r="F22" s="84"/>
+      <c r="F22" s="74"/>
       <c r="G22" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4535,14 +4540,14 @@
       <c r="B23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="73"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="11">
         <v>45670</v>
       </c>
       <c r="E23" s="11">
         <v>45684</v>
       </c>
-      <c r="F23" s="84"/>
+      <c r="F23" s="74"/>
       <c r="G23" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4573,14 +4578,14 @@
       <c r="B24" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="73"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="11">
         <v>45670</v>
       </c>
       <c r="E24" s="11">
         <v>45684</v>
       </c>
-      <c r="F24" s="84"/>
+      <c r="F24" s="74"/>
       <c r="G24" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4611,14 +4616,14 @@
       <c r="B25" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="74"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="11">
         <v>45670</v>
       </c>
       <c r="E25" s="11">
         <v>45684</v>
       </c>
-      <c r="F25" s="84"/>
+      <c r="F25" s="74"/>
       <c r="G25" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4658,7 +4663,7 @@
       <c r="E26" s="11">
         <v>45684</v>
       </c>
-      <c r="F26" s="84"/>
+      <c r="F26" s="74"/>
       <c r="G26" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4698,7 +4703,7 @@
       <c r="E27" s="11">
         <v>45684</v>
       </c>
-      <c r="F27" s="84"/>
+      <c r="F27" s="74"/>
       <c r="G27" s="22">
         <f t="shared" ref="G27" si="7">IF(E27="","",E27+1-D27)</f>
         <v>15</v>
@@ -4734,7 +4739,7 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="84"/>
+      <c r="F28" s="74"/>
       <c r="G28" s="22" t="str">
         <f t="shared" ref="G28" si="8">IF(E28="","",E28+1-D28)</f>
         <v/>
@@ -4987,6 +4992,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
     <mergeCell ref="C20:C25"/>
     <mergeCell ref="I4:Z4"/>
     <mergeCell ref="G4:G6"/>
@@ -4994,11 +5004,6 @@
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="F7:F16"/>
     <mergeCell ref="F17:F28"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I5:Z34">
@@ -5058,7 +5063,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S16" sqref="S16"/>
+      <selection pane="topRight" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5085,16 +5090,16 @@
   <sheetData>
     <row r="1" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
     </row>
     <row r="3" spans="1:23" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -5117,121 +5122,121 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="87"/>
-      <c r="C4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="W4" s="93" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="88"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="88"/>
     </row>
     <row r="6" spans="1:23" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="95"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="89"/>
     </row>
     <row r="7" spans="1:23" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5411,118 +5416,118 @@
       <c r="W11" s="39"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="87"/>
-      <c r="C12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="T12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="U12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="93" t="s">
+      <c r="B12" s="93"/>
+      <c r="C12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="88"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="88"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="89"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="89"/>
     </row>
     <row r="15" spans="1:23" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5632,7 +5637,9 @@
       <c r="R16" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="S16" s="24"/>
+      <c r="S16" s="24" t="s">
+        <v>139</v>
+      </c>
       <c r="T16" s="24"/>
       <c r="U16" s="24"/>
       <c r="V16" s="24"/>
@@ -5642,118 +5649,118 @@
       <c r="W17" s="39"/>
     </row>
     <row r="18" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="87"/>
-      <c r="C18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="80" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="67" t="s">
         <v>21</v>
       </c>
       <c r="O18" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="T18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="V18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="W18" s="93" t="s">
+      <c r="P18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:23" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="88"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
       <c r="O19" s="91"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="94"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="88"/>
     </row>
     <row r="20" spans="2:23" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="89"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
       <c r="O20" s="92"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="95"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="89"/>
     </row>
     <row r="21" spans="2:23" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5911,118 +5918,118 @@
       <c r="W24" s="39"/>
     </row>
     <row r="25" spans="2:23" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="87"/>
-      <c r="C25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="80" t="s">
+      <c r="B25" s="93"/>
+      <c r="C25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="67" t="s">
         <v>21</v>
       </c>
       <c r="O25" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="P25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="T25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="V25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="W25" s="93" t="s">
+      <c r="P25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="88"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
       <c r="O26" s="91"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="81"/>
-      <c r="U26" s="81"/>
-      <c r="V26" s="81"/>
-      <c r="W26" s="94"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="88"/>
     </row>
     <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="89"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
       <c r="O27" s="92"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="95"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="89"/>
     </row>
     <row r="28" spans="2:23" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -6133,79 +6140,6 @@
     <row r="32" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -6222,6 +6156,79 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.프로젝트 관리/프로젝트 계획서_250204.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250204.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="142">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2284,12 +2284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 스크롤 , 클릭 이벤트 충돌 / 갤러리 스크롤시 렉걸림 질문, 피드백 받기
-2. 갤러리 이미지 서브메뉴 요약제목 출력 구현
-3. Saturn,Uranus,Neptune 무한스크롤 간단하게 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>질문
 1. 스크롤, 클릭 이벤트 충돌되어서 클릭 이벤트시 스크롤 위치값과 클릭 이동값이 계속해서 호출되는 현상.
 2. 갤러리 섹션 스크롤시 렉이 걸리는 이유. 해결방법</t>
@@ -2297,7 +2291,72 @@
   </si>
   <si>
     <t>피드백 
-1. scrollIntoView는 기본 내장 속성이라, 잘 쓰지 않음.</t>
+1. scrollIntoView는 기본 내장 속성이라, 잘 쓰지 않음.
+2. 스크롤이랑 hover 속성이랑 중첩되서 렉이 발생되는 듯 -&gt; hover 삭제하기로 결정
+3. 스크롤에 위치값을 업데이트 시킬 수 있는 변수를 export 시켜서  클릭 이벤트 함수에 스크롤이 가지고 있는 위치값을 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 질문 &amp; 피드백
+2. 갤러리 이미지 서브메뉴 요약제목 출력 구현
+3. 서브메뉴 닫기 버튼, 행성 이동 위치 등 세부내용 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>1. 스크롤 , 클릭 이벤트 충돌 / 갤러리 스크롤시 렉걸림 질문, 피드백 받기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2. 갤러리 이미지 서브메뉴 요약제목 출력 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Saturn,Uranus,Neptune 무한스크롤 간단하게 구현</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. venus 행성 움직임 수정
+2.Saturn,Uranus,Neptune 무한스크롤 
+3. 뷰 JS 컴포넌트만들기 , mounted 에 자스 함수 할당하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3232,6 +3291,45 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3265,15 +3363,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3286,34 +3375,22 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3323,24 +3400,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3646,7 +3705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
@@ -3668,11 +3727,11 @@
   <sheetData>
     <row r="1" spans="2:26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="20"/>
@@ -3698,56 +3757,56 @@
       </c>
     </row>
     <row r="4" spans="2:26" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="75">
         <v>45670</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
     </row>
     <row r="5" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="82"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="68"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="81"/>
       <c r="I5" s="19">
         <f>I4</f>
         <v>45670</v>
@@ -3822,13 +3881,13 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="83"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="69"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="82"/>
       <c r="I6" s="30">
         <f>I5</f>
         <v>45670</v>
@@ -3913,7 +3972,7 @@
       <c r="E7" s="11">
         <v>45694</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="83" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="22">
@@ -3957,7 +4016,7 @@
       <c r="E8" s="11">
         <v>45694</v>
       </c>
-      <c r="F8" s="74"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="22">
         <f t="shared" ref="G8:G12" si="3">IF(E8="","",E8+1-D8)</f>
         <v>25</v>
@@ -3997,7 +4056,7 @@
       <c r="E9" s="11">
         <v>45694</v>
       </c>
-      <c r="F9" s="74"/>
+      <c r="F9" s="84"/>
       <c r="G9" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -4037,7 +4096,7 @@
       <c r="E10" s="11">
         <v>45694</v>
       </c>
-      <c r="F10" s="74"/>
+      <c r="F10" s="84"/>
       <c r="G10" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -4077,7 +4136,7 @@
       <c r="E11" s="11">
         <v>45694</v>
       </c>
-      <c r="F11" s="74"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -4117,7 +4176,7 @@
       <c r="E12" s="11">
         <v>45694</v>
       </c>
-      <c r="F12" s="74"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -4157,7 +4216,7 @@
       <c r="E13" s="11">
         <v>45694</v>
       </c>
-      <c r="F13" s="74"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="22">
         <f t="shared" ref="G13:G34" si="4">IF(E13="","",E13+1-D13)</f>
         <v>25</v>
@@ -4197,7 +4256,7 @@
       <c r="E14" s="11">
         <v>45694</v>
       </c>
-      <c r="F14" s="74"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="22">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -4235,7 +4294,7 @@
       <c r="E15" s="11">
         <v>45694</v>
       </c>
-      <c r="F15" s="74"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="22">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -4273,7 +4332,7 @@
       <c r="E16" s="11">
         <v>45694</v>
       </c>
-      <c r="F16" s="75"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="22">
         <f>IF(E16="","",E16+1-D16)</f>
         <v>14</v>
@@ -4311,7 +4370,7 @@
       <c r="E17" s="11">
         <v>45688</v>
       </c>
-      <c r="F17" s="76" t="s">
+      <c r="F17" s="86" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="22">
@@ -4353,7 +4412,7 @@
       <c r="E18" s="11">
         <v>45694</v>
       </c>
-      <c r="F18" s="74"/>
+      <c r="F18" s="84"/>
       <c r="G18" s="22">
         <f t="shared" ref="G18" si="5">IF(E18="","",E18+1-D18)</f>
         <v>14</v>
@@ -4393,7 +4452,7 @@
       <c r="E19" s="11">
         <v>45681</v>
       </c>
-      <c r="F19" s="74"/>
+      <c r="F19" s="84"/>
       <c r="G19" s="22">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -4424,7 +4483,7 @@
       <c r="B20" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="72" t="s">
         <v>120</v>
       </c>
       <c r="D20" s="11">
@@ -4433,7 +4492,7 @@
       <c r="E20" s="11">
         <v>45684</v>
       </c>
-      <c r="F20" s="74"/>
+      <c r="F20" s="84"/>
       <c r="G20" s="22">
         <f t="shared" ref="G20:G26" si="6">IF(E20="","",E20+1-D20)</f>
         <v>15</v>
@@ -4464,14 +4523,14 @@
       <c r="B21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="60"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="11">
         <v>45670</v>
       </c>
       <c r="E21" s="11">
         <v>45684</v>
       </c>
-      <c r="F21" s="74"/>
+      <c r="F21" s="84"/>
       <c r="G21" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4502,14 +4561,14 @@
       <c r="B22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="60"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="11">
         <v>45670</v>
       </c>
       <c r="E22" s="11">
         <v>45684</v>
       </c>
-      <c r="F22" s="74"/>
+      <c r="F22" s="84"/>
       <c r="G22" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4540,14 +4599,14 @@
       <c r="B23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="60"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="11">
         <v>45670</v>
       </c>
       <c r="E23" s="11">
         <v>45684</v>
       </c>
-      <c r="F23" s="74"/>
+      <c r="F23" s="84"/>
       <c r="G23" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4578,14 +4637,14 @@
       <c r="B24" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="60"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="11">
         <v>45670</v>
       </c>
       <c r="E24" s="11">
         <v>45684</v>
       </c>
-      <c r="F24" s="74"/>
+      <c r="F24" s="84"/>
       <c r="G24" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4616,14 +4675,14 @@
       <c r="B25" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="11">
         <v>45670</v>
       </c>
       <c r="E25" s="11">
         <v>45684</v>
       </c>
-      <c r="F25" s="74"/>
+      <c r="F25" s="84"/>
       <c r="G25" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4663,7 +4722,7 @@
       <c r="E26" s="11">
         <v>45684</v>
       </c>
-      <c r="F26" s="74"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4703,7 +4762,7 @@
       <c r="E27" s="11">
         <v>45684</v>
       </c>
-      <c r="F27" s="74"/>
+      <c r="F27" s="84"/>
       <c r="G27" s="22">
         <f t="shared" ref="G27" si="7">IF(E27="","",E27+1-D27)</f>
         <v>15</v>
@@ -4739,7 +4798,7 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="74"/>
+      <c r="F28" s="84"/>
       <c r="G28" s="22" t="str">
         <f t="shared" ref="G28" si="8">IF(E28="","",E28+1-D28)</f>
         <v/>
@@ -4992,11 +5051,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
     <mergeCell ref="C20:C25"/>
     <mergeCell ref="I4:Z4"/>
     <mergeCell ref="G4:G6"/>
@@ -5004,6 +5058,11 @@
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="F7:F16"/>
     <mergeCell ref="F17:F28"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I5:Z34">
@@ -5061,9 +5120,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q21" sqref="Q21"/>
+      <selection pane="topRight" activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5090,16 +5149,16 @@
   <sheetData>
     <row r="1" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:23" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -5122,121 +5181,121 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="93"/>
-      <c r="C4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="W4" s="87" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="93" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="94"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="94"/>
     </row>
     <row r="6" spans="1:23" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="89"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="95"/>
     </row>
     <row r="7" spans="1:23" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5358,7 +5417,9 @@
       <c r="R8" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="S8" s="24"/>
+      <c r="S8" s="24" t="s">
+        <v>139</v>
+      </c>
       <c r="T8" s="24"/>
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
@@ -5416,118 +5477,118 @@
       <c r="W11" s="39"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="93"/>
-      <c r="C12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="T12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="U12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="87" t="s">
+      <c r="B12" s="87"/>
+      <c r="C12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="93" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="94"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="88"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="94"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="95"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="89"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="95"/>
     </row>
     <row r="15" spans="1:23" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5635,10 +5696,10 @@
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="S16" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="S16" s="24" t="s">
-        <v>139</v>
       </c>
       <c r="T16" s="24"/>
       <c r="U16" s="24"/>
@@ -5649,118 +5710,118 @@
       <c r="W17" s="39"/>
     </row>
     <row r="18" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="93"/>
-      <c r="C18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="67" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="80" t="s">
         <v>21</v>
       </c>
       <c r="O18" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="T18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="V18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="W18" s="87" t="s">
+      <c r="P18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="93" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:23" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="94"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
       <c r="O19" s="91"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="88"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="94"/>
     </row>
     <row r="20" spans="2:23" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="95"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
       <c r="O20" s="92"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="89"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="95"/>
     </row>
     <row r="21" spans="2:23" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5878,9 +5939,11 @@
         <v>135</v>
       </c>
       <c r="R22" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="S22" s="43"/>
+        <v>140</v>
+      </c>
+      <c r="S22" s="43" t="s">
+        <v>141</v>
+      </c>
       <c r="T22" s="43"/>
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
@@ -5918,118 +5981,118 @@
       <c r="W24" s="39"/>
     </row>
     <row r="25" spans="2:23" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="93"/>
-      <c r="C25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="67" t="s">
+      <c r="B25" s="87"/>
+      <c r="C25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="80" t="s">
         <v>21</v>
       </c>
       <c r="O25" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="P25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="T25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="V25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="W25" s="87" t="s">
+      <c r="P25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" s="93" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="94"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
       <c r="O26" s="91"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="88"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="81"/>
+      <c r="U26" s="81"/>
+      <c r="V26" s="81"/>
+      <c r="W26" s="94"/>
     </row>
     <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="95"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
       <c r="O27" s="92"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="89"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82"/>
+      <c r="U27" s="82"/>
+      <c r="V27" s="82"/>
+      <c r="W27" s="95"/>
     </row>
     <row r="28" spans="2:23" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -6140,6 +6203,79 @@
     <row r="32" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -6156,79 +6292,6 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.프로젝트 관리/프로젝트 계획서_250204.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250204.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="143">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2267,14 +2267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.  Venus,Earth,Mars 갤러리
-- 가능하면 최근 게시날짜 더미데이터를 넣어서 날짜 순대로 출력
-- 갤러리에 해당되는 제목 정리?(가능하면 ..)
-2. Saturn,Uranus,Neptune 무한스크롤 기초적인 부분 구현하기
-3. mercury 갤러리 서브메뉴 미디어쿼리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 회의 진행
 2. 서브페이지 공통 수정
 - scroll 속도 느리게, 정지값 수정 =&gt; 이동을 많이 하지 않게 해서 사용자가 텍스트를 읽는데에 더 용이한 방향으로 수정
@@ -2284,9 +2276,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>질문
-1. 스크롤, 클릭 이벤트 충돌되어서 클릭 이벤트시 스크롤 위치값과 클릭 이동값이 계속해서 호출되는 현상.
-2. 갤러리 섹션 스크롤시 렉이 걸리는 이유. 해결방법</t>
+    <t>1. 질문 &amp; 피드백
+2. 갤러리 이미지 서브메뉴 요약제목 출력 구현
+3. 서브메뉴 닫기 버튼, 행성 이동 위치 등 세부내용 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2297,9 +2289,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 질문 &amp; 피드백
-2. 갤러리 이미지 서브메뉴 요약제목 출력 구현
-3. 서브메뉴 닫기 버튼, 행성 이동 위치 등 세부내용 수정</t>
+    <t>질문
+1. 스크롤, 클릭 이벤트 충돌되어서 클릭 이벤트시 스크롤 위치값과 클릭 이동값이 계속해서 호출되는 현상.
+2. 갤러리 섹션 스크롤시 렉이 걸리는 이유. 해결방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>1. venus 행성 움직임 수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+2.Saturn,Uranus,Neptune 무한스크롤 
+3. 뷰 JS 컴포넌트만들기 , mounted 에 자스 함수 할당하기</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2349,14 +2369,104 @@
         <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">
-3. Saturn,Uranus,Neptune 무한스크롤 간단하게 구현</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. venus 행성 움직임 수정
-2.Saturn,Uranus,Neptune 무한스크롤 
-3. 뷰 JS 컴포넌트만들기 , mounted 에 자스 함수 할당하기</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>3. Saturn,Uranus,Neptune 무한스크롤 간단하게 구현</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.  Venus,Earth,Mars 갤러리
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>- 가능하면 최근 게시날짜 더미데이터를 넣어서 날짜 순대로 출력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> :mercury 갤러리 형식 사용
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>- 갤러리에 해당되는 제목 정리?(가능하면 ..)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> : 완료
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2. Saturn,Uranus,Neptune 무한스크롤 기초적인 부분 구현하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(이월)
+3. mercury 갤러리 서브메뉴 미디어쿼리</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 미디어 쿼리
+2. 모바일 퀵메뉴 호출 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3291,6 +3401,60 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3321,58 +3485,22 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3382,24 +3510,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3705,7 +3815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
@@ -3727,11 +3837,11 @@
   <sheetData>
     <row r="1" spans="2:26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="20"/>
@@ -3746,7 +3856,7 @@
       </c>
       <c r="E3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45692</v>
+        <v>45693</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="21" t="s">
@@ -3757,56 +3867,56 @@
       </c>
     </row>
     <row r="4" spans="2:26" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="75">
+      <c r="I4" s="62">
         <v>45670</v>
       </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
     </row>
     <row r="5" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="64"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="68"/>
       <c r="I5" s="19">
         <f>I4</f>
         <v>45670</v>
@@ -3881,13 +3991,13 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="65"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="69"/>
       <c r="I6" s="30">
         <f>I5</f>
         <v>45670</v>
@@ -3972,7 +4082,7 @@
       <c r="E7" s="11">
         <v>45694</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="73" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="22">
@@ -4016,7 +4126,7 @@
       <c r="E8" s="11">
         <v>45694</v>
       </c>
-      <c r="F8" s="84"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="22">
         <f t="shared" ref="G8:G12" si="3">IF(E8="","",E8+1-D8)</f>
         <v>25</v>
@@ -4056,7 +4166,7 @@
       <c r="E9" s="11">
         <v>45694</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -4096,7 +4206,7 @@
       <c r="E10" s="11">
         <v>45694</v>
       </c>
-      <c r="F10" s="84"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -4136,7 +4246,7 @@
       <c r="E11" s="11">
         <v>45694</v>
       </c>
-      <c r="F11" s="84"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -4176,7 +4286,7 @@
       <c r="E12" s="11">
         <v>45694</v>
       </c>
-      <c r="F12" s="84"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -4216,7 +4326,7 @@
       <c r="E13" s="11">
         <v>45694</v>
       </c>
-      <c r="F13" s="84"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="22">
         <f t="shared" ref="G13:G34" si="4">IF(E13="","",E13+1-D13)</f>
         <v>25</v>
@@ -4256,7 +4366,7 @@
       <c r="E14" s="11">
         <v>45694</v>
       </c>
-      <c r="F14" s="84"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="22">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -4294,7 +4404,7 @@
       <c r="E15" s="11">
         <v>45694</v>
       </c>
-      <c r="F15" s="84"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="22">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -4332,7 +4442,7 @@
       <c r="E16" s="11">
         <v>45694</v>
       </c>
-      <c r="F16" s="85"/>
+      <c r="F16" s="75"/>
       <c r="G16" s="22">
         <f>IF(E16="","",E16+1-D16)</f>
         <v>14</v>
@@ -4370,7 +4480,7 @@
       <c r="E17" s="11">
         <v>45688</v>
       </c>
-      <c r="F17" s="86" t="s">
+      <c r="F17" s="76" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="22">
@@ -4412,7 +4522,7 @@
       <c r="E18" s="11">
         <v>45694</v>
       </c>
-      <c r="F18" s="84"/>
+      <c r="F18" s="74"/>
       <c r="G18" s="22">
         <f t="shared" ref="G18" si="5">IF(E18="","",E18+1-D18)</f>
         <v>14</v>
@@ -4452,7 +4562,7 @@
       <c r="E19" s="11">
         <v>45681</v>
       </c>
-      <c r="F19" s="84"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="22">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -4483,7 +4593,7 @@
       <c r="B20" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="59" t="s">
         <v>120</v>
       </c>
       <c r="D20" s="11">
@@ -4492,7 +4602,7 @@
       <c r="E20" s="11">
         <v>45684</v>
       </c>
-      <c r="F20" s="84"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="22">
         <f t="shared" ref="G20:G26" si="6">IF(E20="","",E20+1-D20)</f>
         <v>15</v>
@@ -4523,14 +4633,14 @@
       <c r="B21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="73"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="11">
         <v>45670</v>
       </c>
       <c r="E21" s="11">
         <v>45684</v>
       </c>
-      <c r="F21" s="84"/>
+      <c r="F21" s="74"/>
       <c r="G21" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4561,14 +4671,14 @@
       <c r="B22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="73"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="11">
         <v>45670</v>
       </c>
       <c r="E22" s="11">
         <v>45684</v>
       </c>
-      <c r="F22" s="84"/>
+      <c r="F22" s="74"/>
       <c r="G22" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4599,14 +4709,14 @@
       <c r="B23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="73"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="11">
         <v>45670</v>
       </c>
       <c r="E23" s="11">
         <v>45684</v>
       </c>
-      <c r="F23" s="84"/>
+      <c r="F23" s="74"/>
       <c r="G23" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4637,14 +4747,14 @@
       <c r="B24" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="73"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="11">
         <v>45670</v>
       </c>
       <c r="E24" s="11">
         <v>45684</v>
       </c>
-      <c r="F24" s="84"/>
+      <c r="F24" s="74"/>
       <c r="G24" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4675,14 +4785,14 @@
       <c r="B25" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="74"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="11">
         <v>45670</v>
       </c>
       <c r="E25" s="11">
         <v>45684</v>
       </c>
-      <c r="F25" s="84"/>
+      <c r="F25" s="74"/>
       <c r="G25" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4722,7 +4832,7 @@
       <c r="E26" s="11">
         <v>45684</v>
       </c>
-      <c r="F26" s="84"/>
+      <c r="F26" s="74"/>
       <c r="G26" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4762,7 +4872,7 @@
       <c r="E27" s="11">
         <v>45684</v>
       </c>
-      <c r="F27" s="84"/>
+      <c r="F27" s="74"/>
       <c r="G27" s="22">
         <f t="shared" ref="G27" si="7">IF(E27="","",E27+1-D27)</f>
         <v>15</v>
@@ -4798,7 +4908,7 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="84"/>
+      <c r="F28" s="74"/>
       <c r="G28" s="22" t="str">
         <f t="shared" ref="G28" si="8">IF(E28="","",E28+1-D28)</f>
         <v/>
@@ -5051,6 +5161,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
     <mergeCell ref="C20:C25"/>
     <mergeCell ref="I4:Z4"/>
     <mergeCell ref="G4:G6"/>
@@ -5058,11 +5173,6 @@
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="F7:F16"/>
     <mergeCell ref="F17:F28"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I5:Z34">
@@ -5120,9 +5230,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T23" sqref="T23"/>
+      <selection pane="topRight" activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5143,22 +5253,23 @@
     <col min="16" max="16" width="72.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="56.25" customWidth="1"/>
     <col min="18" max="18" width="39.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="27.125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="27.125" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
     </row>
     <row r="3" spans="1:23" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -5168,7 +5279,7 @@
       </c>
       <c r="G3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45692</v>
+        <v>45693</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>3</v>
@@ -5181,121 +5292,121 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="87"/>
-      <c r="C4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="W4" s="93" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="88"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="88"/>
     </row>
     <row r="6" spans="1:23" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="95"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="89"/>
     </row>
     <row r="7" spans="1:23" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5415,12 +5526,14 @@
         <v>134</v>
       </c>
       <c r="R8" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="S8" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="S8" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="T8" s="24"/>
+      <c r="T8" s="24" t="s">
+        <v>142</v>
+      </c>
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
       <c r="W8" s="38"/>
@@ -5477,118 +5590,118 @@
       <c r="W11" s="39"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="87"/>
-      <c r="C12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="T12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="U12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="93" t="s">
+      <c r="B12" s="93"/>
+      <c r="C12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="88"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="88"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="89"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="89"/>
     </row>
     <row r="15" spans="1:23" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5695,11 +5808,11 @@
       </c>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
-      <c r="R16" s="24" t="s">
+      <c r="R16" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="S16" s="49" t="s">
         <v>137</v>
-      </c>
-      <c r="S16" s="24" t="s">
-        <v>138</v>
       </c>
       <c r="T16" s="24"/>
       <c r="U16" s="24"/>
@@ -5710,118 +5823,118 @@
       <c r="W17" s="39"/>
     </row>
     <row r="18" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="87"/>
-      <c r="C18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="80" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="67" t="s">
         <v>21</v>
       </c>
       <c r="O18" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="T18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="V18" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="W18" s="93" t="s">
+      <c r="P18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:23" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="88"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
       <c r="O19" s="91"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="94"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="88"/>
     </row>
     <row r="20" spans="2:23" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="89"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
       <c r="O20" s="92"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="95"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="89"/>
     </row>
     <row r="21" spans="2:23" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5936,13 +6049,13 @@
         <v>130</v>
       </c>
       <c r="Q22" s="43" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="R22" s="43" t="s">
         <v>140</v>
       </c>
       <c r="S22" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T22" s="43"/>
       <c r="U22" s="43"/>
@@ -5981,118 +6094,118 @@
       <c r="W24" s="39"/>
     </row>
     <row r="25" spans="2:23" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="87"/>
-      <c r="C25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="80" t="s">
+      <c r="B25" s="93"/>
+      <c r="C25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="67" t="s">
         <v>21</v>
       </c>
       <c r="O25" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="P25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="T25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="V25" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="W25" s="93" t="s">
+      <c r="P25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="88"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
       <c r="O26" s="91"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="81"/>
-      <c r="U26" s="81"/>
-      <c r="V26" s="81"/>
-      <c r="W26" s="94"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="88"/>
     </row>
     <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="89"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
       <c r="O27" s="92"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="95"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="89"/>
     </row>
     <row r="28" spans="2:23" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -6203,79 +6316,6 @@
     <row r="32" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -6292,6 +6332,79 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
